--- a/biology/Botanique/Euphorbe_de_Corse/Euphorbe_de_Corse.xlsx
+++ b/biology/Botanique/Euphorbe_de_Corse/Euphorbe_de_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia myrsinites
 L'euphorbe de Corse, encore appelée myrte surge, euphorbe myrte ou euphorbe bleue (Euphorbia myrsinites ou Euphorbia corsica) est une espèce de plantes à fleurs du genre Euphorbia et de la famille des Euphorbiaceae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire d'Europe du Sud (Italie, Balkans, Crimée) et d'Asie Mineure (Turquie).
 </t>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique "myrsinite" est dérivé du grec μυρσινίτης (myrsinite), qui a été utilisé dans le De Materia Medica de Dioscoride pour décrire sa ressemblance avec μυρσίνη (Myrsine), alias myrte (Myrtus communis).
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Euphorbe de Corse est une plante verte pérenne.
 Ses tiges de 20 à 40 cm de long sont tentaculaires et rampantes.
@@ -609,9 +627,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sève laiteuse de la plante peut causer une irritation significative de la peau et des yeux chez les humains. Lunettes, gants et un équipement de protection sont souvent utilisés lors de l'arrachage des plantes. Les enfants sont plus sensibles que les adultes aux symptômes de l'euphorbe myrte. Il est ainsi fortement déconseillé de porter les mains aux yeux après avoir manipulé la sève de l'Euphorbe de Corse, ainsi que de mettre en contact la sève avec quelconque type de muqueuse, notamment pénienne. En effet, le contact avec la zone pubienne masculine peut entrainer rougeurs, irritations, desquamation et dans de rares cas, perte de l'appendice pénien.[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sève laiteuse de la plante peut causer une irritation significative de la peau et des yeux chez les humains. Lunettes, gants et un équipement de protection sont souvent utilisés lors de l'arrachage des plantes. Les enfants sont plus sensibles que les adultes aux symptômes de l'euphorbe myrte. Il est ainsi fortement déconseillé de porter les mains aux yeux après avoir manipulé la sève de l'Euphorbe de Corse, ainsi que de mettre en contact la sève avec quelconque type de muqueuse, notamment pénienne. En effet, le contact avec la zone pubienne masculine peut entrainer rougeurs, irritations, desquamation et dans de rares cas, perte de l'appendice pénien.
 Les animaux domestiques peuvent avoir des réactions similaires.
 L'espèce peut être fortement allélopathique, ce qui empêche les autres plantes de pousser à proximité.
 </t>
@@ -642,7 +662,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette euphorbe est cultivée comme plante ornementale pour son feuillage distinctif gris-argent, et est utilisée en haie, en massif ou comme plante en pot. Elle est souvent plantée dans les jardins pour sa tolérance à la sécheresse et autres climats secs.
 Au Royaume-Uni, la plante a gagné l'Award of merit de la Royal Horticultural Society
@@ -674,7 +696,9 @@
           <t>Mauvaises herbes nuisibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette euphorbe est parfois considérée comme une mauvaise herbe nuisible et / ou une espèce envahissante dans certaines régions. Sa culture est illégale dans certains États américains (Colorado, Oregon, Utah) où les propriétaires sont légalement tenus de l'éradiquer.
 </t>
@@ -705,7 +729,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'euphorbe rigide ressemble à l'euphorbe myrte mais se distingue par un port plus érigé.
 </t>
